--- a/Assessment3.xlsx
+++ b/Assessment3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek.kumar.k\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17990A-CA3C-4835-81D4-A73550EFCABA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1,2,3" sheetId="1" r:id="rId1"/>
@@ -293,11 +299,6 @@
 Note: Find Respective  keyword in project name</t>
   </si>
   <si>
-    <t xml:space="preserve">Fetch EMP_NAME,PLACE_DESC
-Show only employees working as higest grade in each place, If two employees in same grade use minimum Place_id to pick one,  If two employees in same project use minimum Project_id to pick one,
-Use DESC_ID, PLACE_ID &amp; PROJECT_ID to define Grades </t>
-  </si>
-  <si>
     <t>Question 4</t>
   </si>
   <si>
@@ -312,12 +313,17 @@
   </si>
   <si>
     <t>Salesman_Manager_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch EMP_NAME,DESC_NAME,PLACE_DESC,PROJ_NAME
+Show only employees working as higest grade in each place,  If two employees in same grade use minimum Project_id to pick one,
+Use DESC_ID, PLACE_ID &amp; PROJECT_ID to define Grades </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,9 +646,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,6 +698,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2065,7 +2105,7 @@
     </row>
     <row r="44" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2128,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13"/>
@@ -2305,7 +2345,7 @@
     </row>
     <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="R44:V58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R44:V58">
     <sortCondition ref="U43"/>
   </sortState>
   <mergeCells count="3">
@@ -2319,10 +2359,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P23" sqref="P22:P23"/>
     </sheetView>
   </sheetViews>
@@ -2356,7 +2396,7 @@
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2399,7 +2439,7 @@
         <v>10000</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2407,7 +2447,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="5"/>
       <c r="P6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>65</v>
@@ -2769,7 +2809,7 @@
         <v>15000</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2866,6 +2906,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096862C0F57C0044D9D5EA51827254DE1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90e4e5c9ea726c5229765dbbdb4d51c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2979,22 +3028,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19016121-50C1-45EE-9A2D-C46C5FE0D3B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F37D5626-D8AE-421F-8585-3A9EF72AEBFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3010,7 +3058,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108ABEDE-884C-4AC4-B4C6-AEFA2A9C41FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3023,12 +3071,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19016121-50C1-45EE-9A2D-C46C5FE0D3B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>